--- a/assets/report/engagement-report.xlsx
+++ b/assets/report/engagement-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Printed By: Admin</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Engagement Report</t>
+  </si>
+  <si>
+    <t>Cummulative</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Variance (%)</t>
+  </si>
+  <si>
+    <t>HOUR</t>
   </si>
 </sst>
 </file>
@@ -90,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +115,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -112,25 +130,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,16 +585,22 @@
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -464,11 +608,14 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -476,55 +623,124 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
